--- a/top250.xlsx
+++ b/top250.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leyifan/Desktop/2019 spring/317/IMDb_Douban_Crawler/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0789A30C-4CCA-4042-803B-996B3B5D99C2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{030869CD-4C87-8D43-A5A8-82A0FD890BA0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8440" yWindow="5480" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3980" yWindow="1880" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -28,13 +28,13 @@
     <t>肖申克的救赎</t>
   </si>
   <si>
-    <t>  TheShawshankRedemption</t>
+    <t>The Shawshank Redemption</t>
   </si>
   <si>
     <t>9.6</t>
   </si>
   <si>
-    <t>1447717</t>
+    <t>1448323</t>
   </si>
   <si>
     <t>2</t>
@@ -43,7 +43,7 @@
     <t>霸王别姬</t>
   </si>
   <si>
-    <t>1072499</t>
+    <t>1072767</t>
   </si>
   <si>
     <t>3</t>
@@ -52,13 +52,13 @@
     <t>这个杀手不太冷</t>
   </si>
   <si>
-    <t>  Léon</t>
+    <t>Léon</t>
   </si>
   <si>
     <t>9.4</t>
   </si>
   <si>
-    <t>1318827</t>
+    <t>1319355</t>
   </si>
   <si>
     <t>4</t>
@@ -67,10 +67,10 @@
     <t>阿甘正传</t>
   </si>
   <si>
-    <t>  ForrestGump</t>
-  </si>
-  <si>
-    <t>1139068</t>
+    <t>Forrest Gump</t>
+  </si>
+  <si>
+    <t>1139352</t>
   </si>
   <si>
     <t>5</t>
@@ -79,13 +79,13 @@
     <t>美丽人生</t>
   </si>
   <si>
-    <t>  Lavitaèbella</t>
+    <t>La vita è bella</t>
   </si>
   <si>
     <t>9.5</t>
   </si>
   <si>
-    <t>667489</t>
+    <t>667715</t>
   </si>
   <si>
     <t>6</t>
@@ -94,13 +94,13 @@
     <t>泰坦尼克号</t>
   </si>
   <si>
-    <t>  Titanic</t>
+    <t>Titanic</t>
   </si>
   <si>
     <t>9.3</t>
   </si>
   <si>
-    <t>1080181</t>
+    <t>1080417</t>
   </si>
   <si>
     <t>7</t>
@@ -109,10 +109,10 @@
     <t>千与千寻</t>
   </si>
   <si>
-    <t>  千と千尋の神隠し</t>
-  </si>
-  <si>
-    <t>1065707</t>
+    <t>千と千尋の神隠し</t>
+  </si>
+  <si>
+    <t>1065987</t>
   </si>
   <si>
     <t>8</t>
@@ -121,10 +121,10 @@
     <t>辛德勒的名单</t>
   </si>
   <si>
-    <t>  Schindler'sList</t>
-  </si>
-  <si>
-    <t>594238</t>
+    <t>Schindler's List</t>
+  </si>
+  <si>
+    <t>594344</t>
   </si>
   <si>
     <t>9</t>
@@ -133,10 +133,10 @@
     <t>盗梦空间</t>
   </si>
   <si>
-    <t>  Inception</t>
-  </si>
-  <si>
-    <t>1139437</t>
+    <t>Inception</t>
+  </si>
+  <si>
+    <t>1139626</t>
   </si>
   <si>
     <t>10</t>
@@ -145,10 +145,10 @@
     <t>忠犬八公的故事</t>
   </si>
   <si>
-    <t>  Hachi:ADog'sTale</t>
-  </si>
-  <si>
-    <t>755412</t>
+    <t>Hachi: A Dog's Tale</t>
+  </si>
+  <si>
+    <t>755700</t>
   </si>
   <si>
     <t>11</t>
@@ -157,10 +157,10 @@
     <t>机器人总动员</t>
   </si>
   <si>
-    <t>  WALL·E</t>
-  </si>
-  <si>
-    <t>754504</t>
+    <t>WALL·E</t>
+  </si>
+  <si>
+    <t>754617</t>
   </si>
   <si>
     <t>12</t>
@@ -169,13 +169,13 @@
     <t>三傻大闹宝莱坞</t>
   </si>
   <si>
-    <t>  3Idiots</t>
+    <t>3 Idiots</t>
   </si>
   <si>
     <t>9.2</t>
   </si>
   <si>
-    <t>1025729</t>
+    <t>1026073</t>
   </si>
   <si>
     <t>13</t>
@@ -184,10 +184,10 @@
     <t>海上钢琴师</t>
   </si>
   <si>
-    <t>  Laleggendadelpianistasull'oceano</t>
-  </si>
-  <si>
-    <t>839348</t>
+    <t>La leggenda del pianista sull'oceano</t>
+  </si>
+  <si>
+    <t>839488</t>
   </si>
   <si>
     <t>14</t>
@@ -196,10 +196,10 @@
     <t>放牛班的春天</t>
   </si>
   <si>
-    <t>  Leschoristes</t>
-  </si>
-  <si>
-    <t>711864</t>
+    <t>Les choristes</t>
+  </si>
+  <si>
+    <t>712036</t>
   </si>
   <si>
     <t>15</t>
@@ -208,10 +208,10 @@
     <t>楚门的世界</t>
   </si>
   <si>
-    <t>  TheTrumanShow</t>
-  </si>
-  <si>
-    <t>788842</t>
+    <t>The Truman Show</t>
+  </si>
+  <si>
+    <t>789078</t>
   </si>
   <si>
     <t>16</t>
@@ -220,10 +220,10 @@
     <t>大话西游之大圣娶亲</t>
   </si>
   <si>
-    <t>  西遊記大結局之仙履奇緣</t>
-  </si>
-  <si>
-    <t>794861</t>
+    <t>西遊記大結局之仙履奇緣</t>
+  </si>
+  <si>
+    <t>794986</t>
   </si>
   <si>
     <t>17</t>
@@ -232,10 +232,10 @@
     <t>星际穿越</t>
   </si>
   <si>
-    <t>  Interstellar</t>
-  </si>
-  <si>
-    <t>816068</t>
+    <t>Interstellar</t>
+  </si>
+  <si>
+    <t>816223</t>
   </si>
   <si>
     <t>18</t>
@@ -244,10 +244,10 @@
     <t>龙猫</t>
   </si>
   <si>
-    <t>  となりのトトロ</t>
-  </si>
-  <si>
-    <t>703642</t>
+    <t>となりのトトロ</t>
+  </si>
+  <si>
+    <t>703839</t>
   </si>
   <si>
     <t>19</t>
@@ -256,10 +256,10 @@
     <t>教父</t>
   </si>
   <si>
-    <t>  TheGodfather</t>
-  </si>
-  <si>
-    <t>514814</t>
+    <t>The Godfather</t>
+  </si>
+  <si>
+    <t>514915</t>
   </si>
   <si>
     <t>20</t>
@@ -268,10 +268,10 @@
     <t>熔炉</t>
   </si>
   <si>
-    <t>  도가니</t>
-  </si>
-  <si>
-    <t>463509</t>
+    <t>도가니</t>
+  </si>
+  <si>
+    <t>463659</t>
   </si>
   <si>
     <t>21</t>
@@ -280,10 +280,10 @@
     <t>无间道</t>
   </si>
   <si>
-    <t>  無間道</t>
-  </si>
-  <si>
-    <t>653782</t>
+    <t>無間道</t>
+  </si>
+  <si>
+    <t>654030</t>
   </si>
   <si>
     <t>22</t>
@@ -292,10 +292,10 @@
     <t>疯狂动物城</t>
   </si>
   <si>
-    <t>  Zootopia</t>
-  </si>
-  <si>
-    <t>901708</t>
+    <t>Zootopia</t>
+  </si>
+  <si>
+    <t>902001</t>
   </si>
   <si>
     <t>23</t>
@@ -304,13 +304,13 @@
     <t>当幸福来敲门</t>
   </si>
   <si>
-    <t>  ThePursuitofHappyness</t>
+    <t>The Pursuit of Happyness</t>
   </si>
   <si>
     <t>9.0</t>
   </si>
   <si>
-    <t>831663</t>
+    <t>831836</t>
   </si>
   <si>
     <t>24</t>
@@ -319,10 +319,10 @@
     <t>怦然心动</t>
   </si>
   <si>
-    <t>  Flipped</t>
-  </si>
-  <si>
-    <t>921182</t>
+    <t>Flipped</t>
+  </si>
+  <si>
+    <t>921557</t>
   </si>
   <si>
     <t>25</t>
@@ -331,10 +331,10 @@
     <t>触不可及</t>
   </si>
   <si>
-    <t>  Intouchables</t>
-  </si>
-  <si>
-    <t>548556</t>
+    <t>Intouchables</t>
+  </si>
+  <si>
+    <t>548735</t>
   </si>
   <si>
     <t>26</t>
@@ -343,13 +343,13 @@
     <t>蝙蝠侠：黑暗骑士</t>
   </si>
   <si>
-    <t>  TheDarkKnight</t>
+    <t>The Dark Knight</t>
   </si>
   <si>
     <t>9.1</t>
   </si>
   <si>
-    <t>533084</t>
+    <t>533393</t>
   </si>
   <si>
     <t>27</t>
@@ -358,10 +358,10 @@
     <t>乱世佳人</t>
   </si>
   <si>
-    <t>  GonewiththeWind</t>
-  </si>
-  <si>
-    <t>380161</t>
+    <t>Gone with the Wind</t>
+  </si>
+  <si>
+    <t>380212</t>
   </si>
   <si>
     <t>28</t>
@@ -370,7 +370,7 @@
     <t>活着</t>
   </si>
   <si>
-    <t>424246</t>
+    <t>424297</t>
   </si>
   <si>
     <t>29</t>
@@ -379,10 +379,10 @@
     <t>控方证人</t>
   </si>
   <si>
-    <t>  WitnessfortheProsecution</t>
-  </si>
-  <si>
-    <t>186364</t>
+    <t>Witness for the Prosecution</t>
+  </si>
+  <si>
+    <t>186437</t>
   </si>
   <si>
     <t>30</t>
@@ -391,10 +391,10 @@
     <t>少年派的奇幻漂流</t>
   </si>
   <si>
-    <t>  LifeofPi</t>
-  </si>
-  <si>
-    <t>824275</t>
+    <t>Life of Pi</t>
+  </si>
+  <si>
+    <t>824408</t>
   </si>
   <si>
     <t>31</t>
@@ -403,10 +403,10 @@
     <t>指环王3：王者无敌</t>
   </si>
   <si>
-    <t>  TheLordoftheRings:TheReturnoftheKing</t>
-  </si>
-  <si>
-    <t>416006</t>
+    <t>The Lord of the Rings: The Return of the King</t>
+  </si>
+  <si>
+    <t>416142</t>
   </si>
   <si>
     <t>32</t>
@@ -415,10 +415,10 @@
     <t>天堂电影院</t>
   </si>
   <si>
-    <t>  NuovoCinemaParadiso</t>
-  </si>
-  <si>
-    <t>405700</t>
+    <t>Nuovo Cinema Paradiso</t>
+  </si>
+  <si>
+    <t>405781</t>
   </si>
   <si>
     <t>33</t>
@@ -427,7 +427,7 @@
     <t>鬼子来了</t>
   </si>
   <si>
-    <t>346080</t>
+    <t>346237</t>
   </si>
   <si>
     <t>34</t>
@@ -436,10 +436,10 @@
     <t>天空之城</t>
   </si>
   <si>
-    <t>  天空の城ラピュタ</t>
-  </si>
-  <si>
-    <t>486682</t>
+    <t>天空の城ラピュタ</t>
+  </si>
+  <si>
+    <t>486826</t>
   </si>
   <si>
     <t>35</t>
@@ -448,10 +448,10 @@
     <t>十二怒汉</t>
   </si>
   <si>
-    <t>  12AngryMen</t>
-  </si>
-  <si>
-    <t>246145</t>
+    <t>12 Angry Men</t>
+  </si>
+  <si>
+    <t>246224</t>
   </si>
   <si>
     <t>36</t>
@@ -460,10 +460,10 @@
     <t>摔跤吧！爸爸</t>
   </si>
   <si>
-    <t>  Dangal</t>
-  </si>
-  <si>
-    <t>800480</t>
+    <t>Dangal</t>
+  </si>
+  <si>
+    <t>800674</t>
   </si>
   <si>
     <t>37</t>
@@ -472,10 +472,10 @@
     <t>飞屋环游记</t>
   </si>
   <si>
-    <t>  Up</t>
-  </si>
-  <si>
-    <t>740493</t>
+    <t>Up</t>
+  </si>
+  <si>
+    <t>740656</t>
   </si>
   <si>
     <t>38</t>
@@ -484,10 +484,10 @@
     <t>大话西游之月光宝盒</t>
   </si>
   <si>
-    <t>  西遊記第壹佰零壹回之月光寶盒</t>
-  </si>
-  <si>
-    <t>642569</t>
+    <t>西遊記第壹佰零壹回之月光寶盒</t>
+  </si>
+  <si>
+    <t>642827</t>
   </si>
   <si>
     <t>39</t>
@@ -496,10 +496,10 @@
     <t>搏击俱乐部</t>
   </si>
   <si>
-    <t>  FightClub</t>
-  </si>
-  <si>
-    <t>527872</t>
+    <t>Fight Club</t>
+  </si>
+  <si>
+    <t>527939</t>
   </si>
   <si>
     <t>40</t>
@@ -508,10 +508,10 @@
     <t>哈尔的移动城堡</t>
   </si>
   <si>
-    <t>  ハウルの動く城</t>
-  </si>
-  <si>
-    <t>542054</t>
+    <t>ハウルの動く城</t>
+  </si>
+  <si>
+    <t>542277</t>
   </si>
   <si>
     <t>41</t>
@@ -520,10 +520,10 @@
     <t>罗马假日</t>
   </si>
   <si>
-    <t>  RomanHoliday</t>
-  </si>
-  <si>
-    <t>553880</t>
+    <t>Roman Holiday</t>
+  </si>
+  <si>
+    <t>554112</t>
   </si>
   <si>
     <t>42</t>
@@ -532,10 +532,10 @@
     <t>闻香识女人</t>
   </si>
   <si>
-    <t>  ScentofaWoman</t>
-  </si>
-  <si>
-    <t>474637</t>
+    <t>Scent of a Woman</t>
+  </si>
+  <si>
+    <t>474803</t>
   </si>
   <si>
     <t>43</t>
@@ -544,10 +544,10 @@
     <t>末代皇帝</t>
   </si>
   <si>
-    <t>  TheLastEmperor</t>
-  </si>
-  <si>
-    <t>329416</t>
+    <t>The Last Emperor</t>
+  </si>
+  <si>
+    <t>329510</t>
   </si>
   <si>
     <t>44</t>
@@ -556,10 +556,10 @@
     <t>辩护人</t>
   </si>
   <si>
-    <t>  변호인</t>
-  </si>
-  <si>
-    <t>327500</t>
+    <t>변호인</t>
+  </si>
+  <si>
+    <t>327557</t>
   </si>
   <si>
     <t>45</t>
@@ -568,10 +568,10 @@
     <t>窃听风暴</t>
   </si>
   <si>
-    <t>  DasLebenderAnderen</t>
-  </si>
-  <si>
-    <t>328656</t>
+    <t>Das Leben der Anderen</t>
+  </si>
+  <si>
+    <t>328806</t>
   </si>
   <si>
     <t>46</t>
@@ -580,10 +580,10 @@
     <t>寻梦环游记</t>
   </si>
   <si>
-    <t>  Coco</t>
-  </si>
-  <si>
-    <t>764608</t>
+    <t>Coco</t>
+  </si>
+  <si>
+    <t>764917</t>
   </si>
   <si>
     <t>47</t>
@@ -592,10 +592,10 @@
     <t>素媛</t>
   </si>
   <si>
-    <t>  소원</t>
-  </si>
-  <si>
-    <t>302820</t>
+    <t>소원</t>
+  </si>
+  <si>
+    <t>303024</t>
   </si>
   <si>
     <t>48</t>
@@ -604,10 +604,10 @@
     <t>两杆大烟枪</t>
   </si>
   <si>
-    <t>  Lock,StockandTwoSmokingBarrels</t>
-  </si>
-  <si>
-    <t>360379</t>
+    <t>Lock, Stock and Two Smoking Barrels</t>
+  </si>
+  <si>
+    <t>360449</t>
   </si>
   <si>
     <t>49</t>
@@ -616,10 +616,10 @@
     <t>死亡诗社</t>
   </si>
   <si>
-    <t>  DeadPoetsSociety</t>
-  </si>
-  <si>
-    <t>400670</t>
+    <t>Dead Poets Society</t>
+  </si>
+  <si>
+    <t>400747</t>
   </si>
   <si>
     <t>50</t>
@@ -628,10 +628,10 @@
     <t>飞越疯人院</t>
   </si>
   <si>
-    <t>  OneFlewOvertheCuckoo'sNest</t>
-  </si>
-  <si>
-    <t>363402</t>
+    <t>One Flew Over the Cuckoo's Nest</t>
+  </si>
+  <si>
+    <t>363451</t>
   </si>
   <si>
     <t>51</t>
@@ -640,10 +640,10 @@
     <t>指环王2：双塔奇兵</t>
   </si>
   <si>
-    <t>  TheLordoftheRings:TheTwoTowers</t>
-  </si>
-  <si>
-    <t>390592</t>
+    <t>The Lord of the Rings: The Two Towers</t>
+  </si>
+  <si>
+    <t>390713</t>
   </si>
   <si>
     <t>52</t>
@@ -652,10 +652,10 @@
     <t>教父2</t>
   </si>
   <si>
-    <t>  TheGodfather:PartⅡ</t>
-  </si>
-  <si>
-    <t>279655</t>
+    <t>The Godfather: Part Ⅱ</t>
+  </si>
+  <si>
+    <t>279741</t>
   </si>
   <si>
     <t>53</t>
@@ -664,13 +664,13 @@
     <t>V字仇杀队</t>
   </si>
   <si>
-    <t>  VforVendetta</t>
+    <t>V for Vendetta</t>
   </si>
   <si>
     <t>8.9</t>
   </si>
   <si>
-    <t>612149</t>
+    <t>612340</t>
   </si>
   <si>
     <t>54</t>
@@ -679,10 +679,10 @@
     <t>指环王1：魔戒再现</t>
   </si>
   <si>
-    <t>  TheLordoftheRings:TheFellowshipoftheRing</t>
-  </si>
-  <si>
-    <t>438109</t>
+    <t>The Lord of the Rings: The Fellowship of the Ring</t>
+  </si>
+  <si>
+    <t>438196</t>
   </si>
   <si>
     <t>55</t>
@@ -691,10 +691,10 @@
     <t>狮子王</t>
   </si>
   <si>
-    <t>  TheLionKing</t>
-  </si>
-  <si>
-    <t>416591</t>
+    <t>The Lion King</t>
+  </si>
+  <si>
+    <t>416693</t>
   </si>
   <si>
     <t>56</t>
@@ -703,10 +703,10 @@
     <t>美丽心灵</t>
   </si>
   <si>
-    <t>  ABeautifulMind</t>
-  </si>
-  <si>
-    <t>426151</t>
+    <t>A Beautiful Mind</t>
+  </si>
+  <si>
+    <t>426231</t>
   </si>
   <si>
     <t>57</t>
@@ -715,10 +715,10 @@
     <t>饮食男女</t>
   </si>
   <si>
-    <t>  飲食男女</t>
-  </si>
-  <si>
-    <t>300400</t>
+    <t>飲食男女</t>
+  </si>
+  <si>
+    <t>300472</t>
   </si>
   <si>
     <t>58</t>
@@ -727,10 +727,10 @@
     <t>海豚湾</t>
   </si>
   <si>
-    <t>  TheCove</t>
-  </si>
-  <si>
-    <t>239604</t>
+    <t>The Cove</t>
+  </si>
+  <si>
+    <t>239653</t>
   </si>
   <si>
     <t>59</t>
@@ -739,10 +739,10 @@
     <t>情书</t>
   </si>
   <si>
-    <t>  LoveLetter</t>
-  </si>
-  <si>
-    <t>527275</t>
+    <t>Love Letter</t>
+  </si>
+  <si>
+    <t>527379</t>
   </si>
   <si>
     <t>60</t>
@@ -751,10 +751,10 @@
     <t>钢琴家</t>
   </si>
   <si>
-    <t>  ThePianist</t>
-  </si>
-  <si>
-    <t>281555</t>
+    <t>The Pianist</t>
+  </si>
+  <si>
+    <t>281609</t>
   </si>
   <si>
     <t>61</t>
@@ -763,13 +763,13 @@
     <t>本杰明·巴顿奇事</t>
   </si>
   <si>
-    <t>  TheCuriousCaseofBenjaminButton</t>
+    <t>The Curious Case of Benjamin Button</t>
   </si>
   <si>
     <t>8.8</t>
   </si>
   <si>
-    <t>556007</t>
+    <t>556095</t>
   </si>
   <si>
     <t>62</t>
@@ -778,10 +778,10 @@
     <t>看不见的客人</t>
   </si>
   <si>
-    <t>  Contratiempo</t>
-  </si>
-  <si>
-    <t>601830</t>
+    <t>Contratiempo</t>
+  </si>
+  <si>
+    <t>602072</t>
   </si>
   <si>
     <t>63</t>
@@ -790,10 +790,10 @@
     <t>美国往事</t>
   </si>
   <si>
-    <t>  OnceUponaTimeinAmerica</t>
-  </si>
-  <si>
-    <t>240030</t>
+    <t>Once Upon a Time in America</t>
+  </si>
+  <si>
+    <t>240078</t>
   </si>
   <si>
     <t>64</t>
@@ -802,10 +802,10 @@
     <t>黑客帝国</t>
   </si>
   <si>
-    <t>  TheMatrix</t>
-  </si>
-  <si>
-    <t>416053</t>
+    <t>The Matrix</t>
+  </si>
+  <si>
+    <t>416158</t>
   </si>
   <si>
     <t>65</t>
@@ -814,10 +814,10 @@
     <t>哈利·波特与魔法石</t>
   </si>
   <si>
-    <t>  HarryPotterandtheSorcerer'sStone</t>
-  </si>
-  <si>
-    <t>440535</t>
+    <t>Harry Potter and the Sorcerer's Stone</t>
+  </si>
+  <si>
+    <t>440649</t>
   </si>
   <si>
     <t>66</t>
@@ -826,10 +826,10 @@
     <t>西西里的美丽传说</t>
   </si>
   <si>
-    <t>  Malèna</t>
-  </si>
-  <si>
-    <t>528455</t>
+    <t>Malèna</t>
+  </si>
+  <si>
+    <t>528626</t>
   </si>
   <si>
     <t>67</t>
@@ -838,7 +838,7 @@
     <t>大闹天宫</t>
   </si>
   <si>
-    <t>175028</t>
+    <t>175073</t>
   </si>
   <si>
     <t>68</t>
@@ -847,10 +847,10 @@
     <t>小鞋子</t>
   </si>
   <si>
-    <t>  بچههایآسمان</t>
-  </si>
-  <si>
-    <t>207304</t>
+    <t>بچههای آسمان</t>
+  </si>
+  <si>
+    <t>207400</t>
   </si>
   <si>
     <t>69</t>
@@ -859,10 +859,10 @@
     <t>拯救大兵瑞恩</t>
   </si>
   <si>
-    <t>  SavingPrivateRyan</t>
-  </si>
-  <si>
-    <t>355118</t>
+    <t>Saving Private Ryan</t>
+  </si>
+  <si>
+    <t>355185</t>
   </si>
   <si>
     <t>70</t>
@@ -871,7 +871,7 @@
     <t>让子弹飞</t>
   </si>
   <si>
-    <t>903637</t>
+    <t>903763</t>
   </si>
   <si>
     <t>71</t>
@@ -880,10 +880,10 @@
     <t>致命魔术</t>
   </si>
   <si>
-    <t>  ThePrestige</t>
-  </si>
-  <si>
-    <t>481342</t>
+    <t>The Prestige</t>
+  </si>
+  <si>
+    <t>481430</t>
   </si>
   <si>
     <t>72</t>
@@ -892,10 +892,10 @@
     <t>七宗罪</t>
   </si>
   <si>
-    <t>  Se7en</t>
-  </si>
-  <si>
-    <t>575689</t>
+    <t>Se7en</t>
+  </si>
+  <si>
+    <t>575883</t>
   </si>
   <si>
     <t>73</t>
@@ -904,10 +904,10 @@
     <t>音乐之声</t>
   </si>
   <si>
-    <t>  TheSoundofMusic</t>
-  </si>
-  <si>
-    <t>325210</t>
+    <t>The Sound of Music</t>
+  </si>
+  <si>
+    <t>325264</t>
   </si>
   <si>
     <t>74</t>
@@ -916,10 +916,10 @@
     <t>被嫌弃的松子的一生</t>
   </si>
   <si>
-    <t>  嫌われ松子の一生</t>
-  </si>
-  <si>
-    <t>428681</t>
+    <t>嫌われ松子の一生</t>
+  </si>
+  <si>
+    <t>428814</t>
   </si>
   <si>
     <t>75</t>
@@ -928,10 +928,10 @@
     <t>低俗小说</t>
   </si>
   <si>
-    <t>  PulpFiction</t>
-  </si>
-  <si>
-    <t>476159</t>
+    <t>Pulp Fiction</t>
+  </si>
+  <si>
+    <t>476254</t>
   </si>
   <si>
     <t>76</t>
@@ -940,10 +940,10 @@
     <t>猫鼠游戏</t>
   </si>
   <si>
-    <t>  CatchMeIfYouCan</t>
-  </si>
-  <si>
-    <t>377891</t>
+    <t>Catch Me If You Can</t>
+  </si>
+  <si>
+    <t>377977</t>
   </si>
   <si>
     <t>77</t>
@@ -952,10 +952,10 @@
     <t>沉默的羔羊</t>
   </si>
   <si>
-    <t>  TheSilenceoftheLambs</t>
-  </si>
-  <si>
-    <t>480586</t>
+    <t>The Silence of the Lambs</t>
+  </si>
+  <si>
+    <t>480779</t>
   </si>
   <si>
     <t>78</t>
@@ -964,13 +964,13 @@
     <t>天使爱美丽</t>
   </si>
   <si>
-    <t>  Lefabuleuxdestind'AméliePoulain</t>
+    <t>Le fabuleux destin d'Amélie Poulain</t>
   </si>
   <si>
     <t>8.7</t>
   </si>
   <si>
-    <t>638820</t>
+    <t>638976</t>
   </si>
   <si>
     <t>79</t>
@@ -979,10 +979,10 @@
     <t>勇敢的心</t>
   </si>
   <si>
-    <t>  Braveheart</t>
-  </si>
-  <si>
-    <t>378450</t>
+    <t>Braveheart</t>
+  </si>
+  <si>
+    <t>378501</t>
   </si>
   <si>
     <t>80</t>
@@ -991,10 +991,10 @@
     <t>蝴蝶效应</t>
   </si>
   <si>
-    <t>  TheButterflyEffect</t>
-  </si>
-  <si>
-    <t>529296</t>
+    <t>The Butterfly Effect</t>
+  </si>
+  <si>
+    <t>529379</t>
   </si>
   <si>
     <t>81</t>
@@ -1003,10 +1003,10 @@
     <t>春光乍泄</t>
   </si>
   <si>
-    <t>  春光乍洩</t>
-  </si>
-  <si>
-    <t>353235</t>
+    <t>春光乍洩</t>
+  </si>
+  <si>
+    <t>353319</t>
   </si>
   <si>
     <t>82</t>
@@ -1015,10 +1015,10 @@
     <t>剪刀手爱德华</t>
   </si>
   <si>
-    <t>  EdwardScissorhands</t>
-  </si>
-  <si>
-    <t>654704</t>
+    <t>Edward Scissorhands</t>
+  </si>
+  <si>
+    <t>654791</t>
   </si>
   <si>
     <t>83</t>
@@ -1027,10 +1027,10 @@
     <t>心灵捕手</t>
   </si>
   <si>
-    <t>  GoodWillHunting</t>
-  </si>
-  <si>
-    <t>387660</t>
+    <t>Good Will Hunting</t>
+  </si>
+  <si>
+    <t>387716</t>
   </si>
   <si>
     <t>84</t>
@@ -1039,10 +1039,10 @@
     <t>穿条纹睡衣的男孩</t>
   </si>
   <si>
-    <t>  TheBoyintheStripedPajamas</t>
-  </si>
-  <si>
-    <t>240731</t>
+    <t>The Boy in the Striped Pajamas</t>
+  </si>
+  <si>
+    <t>240816</t>
   </si>
   <si>
     <t>85</t>
@@ -1051,10 +1051,10 @@
     <t>禁闭岛</t>
   </si>
   <si>
-    <t>  ShutterIsland</t>
-  </si>
-  <si>
-    <t>516735</t>
+    <t>Shutter Island</t>
+  </si>
+  <si>
+    <t>516902</t>
   </si>
   <si>
     <t>86</t>
@@ -1063,10 +1063,10 @@
     <t>布达佩斯大饭店</t>
   </si>
   <si>
-    <t>  TheGrandBudapestHotel</t>
-  </si>
-  <si>
-    <t>479431</t>
+    <t>The Grand Budapest Hotel</t>
+  </si>
+  <si>
+    <t>479541</t>
   </si>
   <si>
     <t>87</t>
@@ -1075,10 +1075,10 @@
     <t>入殓师</t>
   </si>
   <si>
-    <t>  おくりびと</t>
-  </si>
-  <si>
-    <t>393666</t>
+    <t>おくりびと</t>
+  </si>
+  <si>
+    <t>393701</t>
   </si>
   <si>
     <t>88</t>
@@ -1087,10 +1087,10 @@
     <t>阿凡达</t>
   </si>
   <si>
-    <t>  Avatar</t>
-  </si>
-  <si>
-    <t>757097</t>
+    <t>Avatar</t>
+  </si>
+  <si>
+    <t>757306</t>
   </si>
   <si>
     <t>89</t>
@@ -1099,10 +1099,10 @@
     <t>幽灵公主</t>
   </si>
   <si>
-    <t>  もののけ姫</t>
-  </si>
-  <si>
-    <t>324549</t>
+    <t>もののけ姫</t>
+  </si>
+  <si>
+    <t>324715</t>
   </si>
   <si>
     <t>90</t>
@@ -1111,7 +1111,7 @@
     <t>阳光灿烂的日子</t>
   </si>
   <si>
-    <t>368569</t>
+    <t>368636</t>
   </si>
   <si>
     <t>91</t>
@@ -1120,10 +1120,10 @@
     <t>致命ID</t>
   </si>
   <si>
-    <t>  Identity</t>
-  </si>
-  <si>
-    <t>440524</t>
+    <t>Identity</t>
+  </si>
+  <si>
+    <t>440575</t>
   </si>
   <si>
     <t>92</t>
@@ -1132,10 +1132,10 @@
     <t>加勒比海盗</t>
   </si>
   <si>
-    <t>  PiratesoftheCaribbean:TheCurseoftheBlackPearl</t>
-  </si>
-  <si>
-    <t>498362</t>
+    <t>Pirates of the Caribbean: The Curse of the Black Pearl</t>
+  </si>
+  <si>
+    <t>498462</t>
   </si>
   <si>
     <t>93</t>
@@ -1144,10 +1144,10 @@
     <t>第六感</t>
   </si>
   <si>
-    <t>  TheSixthSense</t>
-  </si>
-  <si>
-    <t>316241</t>
+    <t>The Sixth Sense</t>
+  </si>
+  <si>
+    <t>316289</t>
   </si>
   <si>
     <t>94</t>
@@ -1156,10 +1156,10 @@
     <t>摩登时代</t>
   </si>
   <si>
-    <t>  ModernTimes</t>
-  </si>
-  <si>
-    <t>140689</t>
+    <t>Modern Times</t>
+  </si>
+  <si>
+    <t>140736</t>
   </si>
   <si>
     <t>95</t>
@@ -1168,10 +1168,10 @@
     <t>断背山</t>
   </si>
   <si>
-    <t>  BrokebackMountain</t>
-  </si>
-  <si>
-    <t>434363</t>
+    <t>Brokeback Mountain</t>
+  </si>
+  <si>
+    <t>434417</t>
   </si>
   <si>
     <t>96</t>
@@ -1180,10 +1180,10 @@
     <t>重庆森林</t>
   </si>
   <si>
-    <t>  重慶森林</t>
-  </si>
-  <si>
-    <t>454307</t>
+    <t>重慶森林</t>
+  </si>
+  <si>
+    <t>454584</t>
   </si>
   <si>
     <t>97</t>
@@ -1192,10 +1192,10 @@
     <t>狩猎</t>
   </si>
   <si>
-    <t>  Jagten</t>
-  </si>
-  <si>
-    <t>190005</t>
+    <t>Jagten</t>
+  </si>
+  <si>
+    <t>190069</t>
   </si>
   <si>
     <t>98</t>
@@ -1204,10 +1204,10 @@
     <t>玛丽和马克思</t>
   </si>
   <si>
-    <t>  MaryandMax</t>
-  </si>
-  <si>
-    <t>283349</t>
+    <t>Mary and Max</t>
+  </si>
+  <si>
+    <t>283387</t>
   </si>
   <si>
     <t>99</t>
@@ -1216,10 +1216,10 @@
     <t>喜剧之王</t>
   </si>
   <si>
-    <t>  喜劇之王</t>
-  </si>
-  <si>
-    <t>488893</t>
+    <t>喜劇之王</t>
+  </si>
+  <si>
+    <t>489078</t>
   </si>
   <si>
     <t>100</t>
@@ -1228,7 +1228,7 @@
     <t>告白</t>
   </si>
   <si>
-    <t>454297</t>
+    <t>454356</t>
   </si>
   <si>
     <t>101</t>
@@ -1237,10 +1237,10 @@
     <t>消失的爱人</t>
   </si>
   <si>
-    <t>  GoneGirl</t>
-  </si>
-  <si>
-    <t>506467</t>
+    <t>Gone Girl</t>
+  </si>
+  <si>
+    <t>506546</t>
   </si>
   <si>
     <t>102</t>
@@ -1249,10 +1249,10 @@
     <t>大鱼</t>
   </si>
   <si>
-    <t>  BigFish</t>
-  </si>
-  <si>
-    <t>336269</t>
+    <t>Big Fish</t>
+  </si>
+  <si>
+    <t>336326</t>
   </si>
   <si>
     <t>103</t>
@@ -1261,7 +1261,7 @@
     <t>一一</t>
   </si>
   <si>
-    <t>204492</t>
+    <t>204518</t>
   </si>
   <si>
     <t>104</t>
@@ -1270,10 +1270,10 @@
     <t>阳光姐妹淘</t>
   </si>
   <si>
-    <t>  써니</t>
-  </si>
-  <si>
-    <t>364616</t>
+    <t>써니</t>
+  </si>
+  <si>
+    <t>364808</t>
   </si>
   <si>
     <t>105</t>
@@ -1282,10 +1282,10 @@
     <t>射雕英雄传之东成西就</t>
   </si>
   <si>
-    <t>  射鵰英雄傳之東成西就</t>
-  </si>
-  <si>
-    <t>372234</t>
+    <t>射鵰英雄傳之東成西就</t>
+  </si>
+  <si>
+    <t>372378</t>
   </si>
   <si>
     <t>106</t>
@@ -1294,10 +1294,10 @@
     <t>爱在黎明破晓前</t>
   </si>
   <si>
-    <t>  BeforeSunrise</t>
-  </si>
-  <si>
-    <t>313746</t>
+    <t>Before Sunrise</t>
+  </si>
+  <si>
+    <t>313803</t>
   </si>
   <si>
     <t>107</t>
@@ -1306,10 +1306,10 @@
     <t>小森林 夏秋篇</t>
   </si>
   <si>
-    <t>  リトル・フォレスト夏・秋</t>
-  </si>
-  <si>
-    <t>213874</t>
+    <t>リトル・フォレスト 夏・秋</t>
+  </si>
+  <si>
+    <t>213965</t>
   </si>
   <si>
     <t>108</t>
@@ -1318,7 +1318,7 @@
     <t>甜蜜蜜</t>
   </si>
   <si>
-    <t>298792</t>
+    <t>298848</t>
   </si>
   <si>
     <t>109</t>
@@ -1327,10 +1327,10 @@
     <t>请以你的名字呼唤我</t>
   </si>
   <si>
-    <t>  CallMebyYourName</t>
-  </si>
-  <si>
-    <t>307621</t>
+    <t>Call Me by Your Name</t>
+  </si>
+  <si>
+    <t>307758</t>
   </si>
   <si>
     <t>110</t>
@@ -1339,10 +1339,10 @@
     <t>侧耳倾听</t>
   </si>
   <si>
-    <t>  耳をすませば</t>
-  </si>
-  <si>
-    <t>243281</t>
+    <t>耳をすませば</t>
+  </si>
+  <si>
+    <t>243327</t>
   </si>
   <si>
     <t>111</t>
@@ -1351,10 +1351,10 @@
     <t>驯龙高手</t>
   </si>
   <si>
-    <t>  HowtoTrainYourDragon</t>
-  </si>
-  <si>
-    <t>419973</t>
+    <t>How to Train Your Dragon</t>
+  </si>
+  <si>
+    <t>420197</t>
   </si>
   <si>
     <t>112</t>
@@ -1363,10 +1363,10 @@
     <t>红辣椒</t>
   </si>
   <si>
-    <t>  パプリカ</t>
-  </si>
-  <si>
-    <t>200707</t>
+    <t>パプリカ</t>
+  </si>
+  <si>
+    <t>200754</t>
   </si>
   <si>
     <t>113</t>
@@ -1375,7 +1375,7 @@
     <t>倩女幽魂</t>
   </si>
   <si>
-    <t>382505</t>
+    <t>382722</t>
   </si>
   <si>
     <t>114</t>
@@ -1384,10 +1384,10 @@
     <t>恐怖直播</t>
   </si>
   <si>
-    <t>  더테러라이브</t>
-  </si>
-  <si>
-    <t>334946</t>
+    <t>더 테러 라이브</t>
+  </si>
+  <si>
+    <t>334997</t>
   </si>
   <si>
     <t>115</t>
@@ -1396,10 +1396,10 @@
     <t>风之谷</t>
   </si>
   <si>
-    <t>  風の谷のナウシカ</t>
-  </si>
-  <si>
-    <t>238212</t>
+    <t>風の谷のナウシカ</t>
+  </si>
+  <si>
+    <t>238293</t>
   </si>
   <si>
     <t>116</t>
@@ -1408,10 +1408,10 @@
     <t>超脱</t>
   </si>
   <si>
-    <t>  Detachment</t>
-  </si>
-  <si>
-    <t>246286</t>
+    <t>Detachment</t>
+  </si>
+  <si>
+    <t>246411</t>
   </si>
   <si>
     <t>117</t>
@@ -1420,10 +1420,10 @@
     <t>爱在日落黄昏时</t>
   </si>
   <si>
-    <t>  BeforeSunset</t>
-  </si>
-  <si>
-    <t>273957</t>
+    <t>Before Sunset</t>
+  </si>
+  <si>
+    <t>274022</t>
   </si>
   <si>
     <t>118</t>
@@ -1432,10 +1432,10 @@
     <t>菊次郎的夏天</t>
   </si>
   <si>
-    <t>  菊次郎の夏</t>
-  </si>
-  <si>
-    <t>268827</t>
+    <t>菊次郎の夏</t>
+  </si>
+  <si>
+    <t>269010</t>
   </si>
   <si>
     <t>119</t>
@@ -1444,10 +1444,10 @@
     <t>上帝之城</t>
   </si>
   <si>
-    <t>  CidadedeDeus</t>
-  </si>
-  <si>
-    <t>195498</t>
+    <t>Cidade de Deus</t>
+  </si>
+  <si>
+    <t>195564</t>
   </si>
   <si>
     <t>120</t>
@@ -1456,10 +1456,10 @@
     <t>小森林 冬春篇</t>
   </si>
   <si>
-    <t>  リトル・フォレスト冬・春</t>
-  </si>
-  <si>
-    <t>186289</t>
+    <t>リトル・フォレスト 冬・春</t>
+  </si>
+  <si>
+    <t>186354</t>
   </si>
   <si>
     <t>121</t>
@@ -1468,10 +1468,10 @@
     <t>哈利·波特与死亡圣器(下)</t>
   </si>
   <si>
-    <t>  HarryPotterandtheDeathlyHallows:Part2</t>
-  </si>
-  <si>
-    <t>392170</t>
+    <t>Harry Potter and the Deathly Hallows: Part 2</t>
+  </si>
+  <si>
+    <t>392358</t>
   </si>
   <si>
     <t>122</t>
@@ -1480,10 +1480,10 @@
     <t>幸福终点站</t>
   </si>
   <si>
-    <t>  TheTerminal</t>
-  </si>
-  <si>
-    <t>299929</t>
+    <t>The Terminal</t>
+  </si>
+  <si>
+    <t>300034</t>
   </si>
   <si>
     <t>123</t>
@@ -1492,10 +1492,10 @@
     <t>杀人回忆</t>
   </si>
   <si>
-    <t>  살인의추억</t>
-  </si>
-  <si>
-    <t>295204</t>
+    <t>살인의 추억</t>
+  </si>
+  <si>
+    <t>295319</t>
   </si>
   <si>
     <t>124</t>
@@ -1504,10 +1504,10 @@
     <t>7号房的礼物</t>
   </si>
   <si>
-    <t>  7번방의선물</t>
-  </si>
-  <si>
-    <t>261769</t>
+    <t>7번방의 선물</t>
+  </si>
+  <si>
+    <t>261871</t>
   </si>
   <si>
     <t>125</t>
@@ -1516,10 +1516,10 @@
     <t>借东西的小人阿莉埃蒂</t>
   </si>
   <si>
-    <t>  借りぐらしのアリエッティ</t>
-  </si>
-  <si>
-    <t>295683</t>
+    <t>借りぐらしのアリエッティ</t>
+  </si>
+  <si>
+    <t>295797</t>
   </si>
   <si>
     <t>126</t>
@@ -1528,10 +1528,10 @@
     <t>蝙蝠侠：黑暗骑士崛起</t>
   </si>
   <si>
-    <t>  TheDarkKnightRises</t>
-  </si>
-  <si>
-    <t>400318</t>
+    <t>The Dark Knight Rises</t>
+  </si>
+  <si>
+    <t>400432</t>
   </si>
   <si>
     <t>127</t>
@@ -1540,13 +1540,13 @@
     <t>神偷奶爸</t>
   </si>
   <si>
-    <t>  DespicableMe</t>
+    <t>Despicable Me</t>
   </si>
   <si>
     <t>8.5</t>
   </si>
   <si>
-    <t>548323</t>
+    <t>548476</t>
   </si>
   <si>
     <t>128</t>
@@ -1555,10 +1555,10 @@
     <t>萤火之森</t>
   </si>
   <si>
-    <t>  蛍火の杜へ</t>
-  </si>
-  <si>
-    <t>245963</t>
+    <t>蛍火の杜へ</t>
+  </si>
+  <si>
+    <t>246063</t>
   </si>
   <si>
     <t>129</t>
@@ -1567,10 +1567,10 @@
     <t>唐伯虎点秋香</t>
   </si>
   <si>
-    <t>  唐伯虎點秋香</t>
-  </si>
-  <si>
-    <t>517605</t>
+    <t>唐伯虎點秋香</t>
+  </si>
+  <si>
+    <t>517828</t>
   </si>
   <si>
     <t>130</t>
@@ -1579,13 +1579,13 @@
     <t>超能陆战队</t>
   </si>
   <si>
-    <t>  BigHero6</t>
+    <t>Big Hero 6</t>
   </si>
   <si>
     <t>8.6</t>
   </si>
   <si>
-    <t>538822</t>
+    <t>538981</t>
   </si>
   <si>
     <t>131</t>
@@ -1594,10 +1594,10 @@
     <t>何以为家</t>
   </si>
   <si>
-    <t>  كفرناحوم</t>
-  </si>
-  <si>
-    <t>231466</t>
+    <t>كفرناحوم</t>
+  </si>
+  <si>
+    <t>232982</t>
   </si>
   <si>
     <t>132</t>
@@ -1606,10 +1606,10 @@
     <t>怪兽电力公司</t>
   </si>
   <si>
-    <t>  Monsters,Inc.</t>
-  </si>
-  <si>
-    <t>348124</t>
+    <t>Monsters, Inc.</t>
+  </si>
+  <si>
+    <t>348220</t>
   </si>
   <si>
     <t>133</t>
@@ -1618,10 +1618,10 @@
     <t>无人知晓</t>
   </si>
   <si>
-    <t>  誰も知らない</t>
-  </si>
-  <si>
-    <t>123845</t>
+    <t>誰も知らない</t>
+  </si>
+  <si>
+    <t>123885</t>
   </si>
   <si>
     <t>134</t>
@@ -1630,10 +1630,10 @@
     <t>岁月神偷</t>
   </si>
   <si>
-    <t>  歲月神偷</t>
-  </si>
-  <si>
-    <t>384997</t>
+    <t>歲月神偷</t>
+  </si>
+  <si>
+    <t>385035</t>
   </si>
   <si>
     <t>135</t>
@@ -1642,10 +1642,10 @@
     <t>电锯惊魂</t>
   </si>
   <si>
-    <t>  Saw</t>
-  </si>
-  <si>
-    <t>275302</t>
+    <t>Saw</t>
+  </si>
+  <si>
+    <t>275383</t>
   </si>
   <si>
     <t>136</t>
@@ -1654,10 +1654,10 @@
     <t>七武士</t>
   </si>
   <si>
-    <t>  七人の侍</t>
-  </si>
-  <si>
-    <t>105593</t>
+    <t>七人の侍</t>
+  </si>
+  <si>
+    <t>105646</t>
   </si>
   <si>
     <t>137</t>
@@ -1666,10 +1666,10 @@
     <t>谍影重重3</t>
   </si>
   <si>
-    <t>  TheBourneUltimatum</t>
-  </si>
-  <si>
-    <t>246025</t>
+    <t>The Bourne Ultimatum</t>
+  </si>
+  <si>
+    <t>246050</t>
   </si>
   <si>
     <t>138</t>
@@ -1678,10 +1678,10 @@
     <t>真爱至上</t>
   </si>
   <si>
-    <t>  LoveActually</t>
-  </si>
-  <si>
-    <t>419730</t>
+    <t>Love Actually</t>
+  </si>
+  <si>
+    <t>419788</t>
   </si>
   <si>
     <t>139</t>
@@ -1690,10 +1690,10 @@
     <t>疯狂原始人</t>
   </si>
   <si>
-    <t>  TheCroods</t>
-  </si>
-  <si>
-    <t>499792</t>
+    <t>The Croods</t>
+  </si>
+  <si>
+    <t>499925</t>
   </si>
   <si>
     <t>140</t>
@@ -1702,10 +1702,10 @@
     <t>喜宴</t>
   </si>
   <si>
-    <t>  囍宴</t>
-  </si>
-  <si>
-    <t>188875</t>
+    <t>囍宴</t>
+  </si>
+  <si>
+    <t>188929</t>
   </si>
   <si>
     <t>141</t>
@@ -1714,7 +1714,7 @@
     <t>英雄本色</t>
   </si>
   <si>
-    <t>263300</t>
+    <t>263386</t>
   </si>
   <si>
     <t>142</t>
@@ -1723,10 +1723,10 @@
     <t>东邪西毒</t>
   </si>
   <si>
-    <t>  東邪西毒</t>
-  </si>
-  <si>
-    <t>349825</t>
+    <t>東邪西毒</t>
+  </si>
+  <si>
+    <t>349897</t>
   </si>
   <si>
     <t>143</t>
@@ -1735,10 +1735,10 @@
     <t>血战钢锯岭</t>
   </si>
   <si>
-    <t>  HacksawRidge</t>
-  </si>
-  <si>
-    <t>454025</t>
+    <t>Hacksaw Ridge</t>
+  </si>
+  <si>
+    <t>454165</t>
   </si>
   <si>
     <t>144</t>
@@ -1747,10 +1747,10 @@
     <t>萤火虫之墓</t>
   </si>
   <si>
-    <t>  火垂るの墓</t>
-  </si>
-  <si>
-    <t>263031</t>
+    <t>火垂るの墓</t>
+  </si>
+  <si>
+    <t>263136</t>
   </si>
   <si>
     <t>145</t>
@@ -1759,10 +1759,10 @@
     <t>贫民窟的百万富翁</t>
   </si>
   <si>
-    <t>  SlumdogMillionaire</t>
-  </si>
-  <si>
-    <t>487036</t>
+    <t>Slumdog Millionaire</t>
+  </si>
+  <si>
+    <t>487119</t>
   </si>
   <si>
     <t>146</t>
@@ -1771,10 +1771,10 @@
     <t>黑天鹅</t>
   </si>
   <si>
-    <t>  BlackSwan</t>
-  </si>
-  <si>
-    <t>535018</t>
+    <t>Black Swan</t>
+  </si>
+  <si>
+    <t>535135</t>
   </si>
   <si>
     <t>147</t>
@@ -1783,10 +1783,10 @@
     <t>记忆碎片</t>
   </si>
   <si>
-    <t>  Memento</t>
-  </si>
-  <si>
-    <t>363467</t>
+    <t>Memento</t>
+  </si>
+  <si>
+    <t>363545</t>
   </si>
   <si>
     <t>148</t>
@@ -1795,10 +1795,10 @@
     <t>傲慢与偏见</t>
   </si>
   <si>
-    <t>  Pride&amp;amp;Prejudice</t>
-  </si>
-  <si>
-    <t>413795</t>
+    <t>Pride &amp;amp; Prejudice</t>
+  </si>
+  <si>
+    <t>413909</t>
   </si>
   <si>
     <t>149</t>
@@ -1807,10 +1807,10 @@
     <t>时空恋旅人</t>
   </si>
   <si>
-    <t>  AboutTime</t>
-  </si>
-  <si>
-    <t>290534</t>
+    <t>About Time</t>
+  </si>
+  <si>
+    <t>290589</t>
   </si>
   <si>
     <t>150</t>
@@ -1819,7 +1819,7 @@
     <t>心迷宫</t>
   </si>
   <si>
-    <t>264112</t>
+    <t>264195</t>
   </si>
   <si>
     <t>151</t>
@@ -1828,10 +1828,10 @@
     <t>海蒂和爷爷</t>
   </si>
   <si>
-    <t>  Heidi</t>
-  </si>
-  <si>
-    <t>117062</t>
+    <t>Heidi</t>
+  </si>
+  <si>
+    <t>117198</t>
   </si>
   <si>
     <t>152</t>
@@ -1840,10 +1840,10 @@
     <t>纵横四海</t>
   </si>
   <si>
-    <t>  緃横四海</t>
-  </si>
-  <si>
-    <t>216668</t>
+    <t>緃横四海</t>
+  </si>
+  <si>
+    <t>216719</t>
   </si>
   <si>
     <t>153</t>
@@ -1852,10 +1852,10 @@
     <t>荒蛮故事</t>
   </si>
   <si>
-    <t>  Relatossalvajes</t>
-  </si>
-  <si>
-    <t>213472</t>
+    <t>Relatos salvajes</t>
+  </si>
+  <si>
+    <t>213529</t>
   </si>
   <si>
     <t>154</t>
@@ -1864,10 +1864,10 @@
     <t>教父3</t>
   </si>
   <si>
-    <t>  TheGodfather:PartIII</t>
-  </si>
-  <si>
-    <t>184062</t>
+    <t>The Godfather: Part III</t>
+  </si>
+  <si>
+    <t>184092</t>
   </si>
   <si>
     <t>155</t>
@@ -1876,10 +1876,10 @@
     <t>雨人</t>
   </si>
   <si>
-    <t>  RainMan</t>
-  </si>
-  <si>
-    <t>260882</t>
+    <t>Rain Man</t>
+  </si>
+  <si>
+    <t>260961</t>
   </si>
   <si>
     <t>156</t>
@@ -1888,10 +1888,10 @@
     <t>达拉斯买家俱乐部</t>
   </si>
   <si>
-    <t>  DallasBuyersClub</t>
-  </si>
-  <si>
-    <t>255856</t>
+    <t>Dallas Buyers Club</t>
+  </si>
+  <si>
+    <t>255895</t>
   </si>
   <si>
     <t>157</t>
@@ -1900,10 +1900,10 @@
     <t>完美的世界</t>
   </si>
   <si>
-    <t>  APerfectWorld</t>
-  </si>
-  <si>
-    <t>116785</t>
+    <t>A Perfect World</t>
+  </si>
+  <si>
+    <t>116839</t>
   </si>
   <si>
     <t>158</t>
@@ -1912,10 +1912,10 @@
     <t>玩具总动员3</t>
   </si>
   <si>
-    <t>  ToyStory3</t>
-  </si>
-  <si>
-    <t>257648</t>
+    <t>Toy Story 3</t>
+  </si>
+  <si>
+    <t>257738</t>
   </si>
   <si>
     <t>159</t>
@@ -1924,10 +1924,10 @@
     <t>花样年华</t>
   </si>
   <si>
-    <t>  花樣年華</t>
-  </si>
-  <si>
-    <t>326328</t>
+    <t>花樣年華</t>
+  </si>
+  <si>
+    <t>326391</t>
   </si>
   <si>
     <t>160</t>
@@ -1936,10 +1936,10 @@
     <t>卢旺达饭店</t>
   </si>
   <si>
-    <t>  HotelRwanda</t>
-  </si>
-  <si>
-    <t>156846</t>
+    <t>Hotel Rwanda</t>
+  </si>
+  <si>
+    <t>156880</t>
   </si>
   <si>
     <t>161</t>
@@ -1948,10 +1948,10 @@
     <t>海边的曼彻斯特</t>
   </si>
   <si>
-    <t>  ManchesterbytheSea</t>
-  </si>
-  <si>
-    <t>285117</t>
+    <t>Manchester by the Sea</t>
+  </si>
+  <si>
+    <t>285188</t>
   </si>
   <si>
     <t>162</t>
@@ -1960,10 +1960,10 @@
     <t>被解救的姜戈</t>
   </si>
   <si>
-    <t>  DjangoUnchained</t>
-  </si>
-  <si>
-    <t>344255</t>
+    <t>Django Unchained</t>
+  </si>
+  <si>
+    <t>344352</t>
   </si>
   <si>
     <t>163</t>
@@ -1972,10 +1972,10 @@
     <t>三块广告牌</t>
   </si>
   <si>
-    <t>  ThreeBillboardsOutsideEbbing,Missouri</t>
-  </si>
-  <si>
-    <t>472642</t>
+    <t>Three Billboards Outside Ebbing, Missouri</t>
+  </si>
+  <si>
+    <t>472774</t>
   </si>
   <si>
     <t>164</t>
@@ -1984,10 +1984,10 @@
     <t>恋恋笔记本</t>
   </si>
   <si>
-    <t>  TheNotebook</t>
-  </si>
-  <si>
-    <t>373716</t>
+    <t>The Notebook</t>
+  </si>
+  <si>
+    <t>373756</t>
   </si>
   <si>
     <t>165</t>
@@ -1996,10 +1996,10 @@
     <t>你看起来好像很好吃</t>
   </si>
   <si>
-    <t>  おまえうまそうだな</t>
-  </si>
-  <si>
-    <t>195333</t>
+    <t>おまえうまそうだな</t>
+  </si>
+  <si>
+    <t>195362</t>
   </si>
   <si>
     <t>166</t>
@@ -2008,10 +2008,10 @@
     <t>海洋</t>
   </si>
   <si>
-    <t>  Océans</t>
-  </si>
-  <si>
-    <t>114596</t>
+    <t>Océans</t>
+  </si>
+  <si>
+    <t>114606</t>
   </si>
   <si>
     <t>167</t>
@@ -2020,10 +2020,10 @@
     <t>虎口脱险</t>
   </si>
   <si>
-    <t>  Lagrandevadrouille</t>
-  </si>
-  <si>
-    <t>136345</t>
+    <t>La grande vadrouille</t>
+  </si>
+  <si>
+    <t>136406</t>
   </si>
   <si>
     <t>168</t>
@@ -2032,13 +2032,13 @@
     <t>你的名字。</t>
   </si>
   <si>
-    <t>  君の名は。</t>
+    <t>君の名は。</t>
   </si>
   <si>
     <t>8.4</t>
   </si>
   <si>
-    <t>718208</t>
+    <t>718615</t>
   </si>
   <si>
     <t>169</t>
@@ -2047,10 +2047,10 @@
     <t>头脑特工队</t>
   </si>
   <si>
-    <t>  InsideOut</t>
-  </si>
-  <si>
-    <t>325709</t>
+    <t>Inside Out</t>
+  </si>
+  <si>
+    <t>325795</t>
   </si>
   <si>
     <t>170</t>
@@ -2059,7 +2059,7 @@
     <t>二十二</t>
   </si>
   <si>
-    <t>160550</t>
+    <t>160583</t>
   </si>
   <si>
     <t>171</t>
@@ -2068,10 +2068,10 @@
     <t>无敌破坏王</t>
   </si>
   <si>
-    <t>  Wreck-ItRalph</t>
-  </si>
-  <si>
-    <t>293441</t>
+    <t>Wreck-It Ralph</t>
+  </si>
+  <si>
+    <t>293487</t>
   </si>
   <si>
     <t>172</t>
@@ -2080,10 +2080,10 @@
     <t>我是山姆</t>
   </si>
   <si>
-    <t>  IAmSam</t>
-  </si>
-  <si>
-    <t>146605</t>
+    <t>I Am Sam</t>
+  </si>
+  <si>
+    <t>146648</t>
   </si>
   <si>
     <t>173</t>
@@ -2092,10 +2092,10 @@
     <t>冰川时代</t>
   </si>
   <si>
-    <t>  IceAge</t>
-  </si>
-  <si>
-    <t>365620</t>
+    <t>Ice Age</t>
+  </si>
+  <si>
+    <t>365680</t>
   </si>
   <si>
     <t>174</t>
@@ -2104,10 +2104,10 @@
     <t>雨中曲</t>
   </si>
   <si>
-    <t>  Singin'intheRain</t>
-  </si>
-  <si>
-    <t>121066</t>
+    <t>Singin' in the Rain</t>
+  </si>
+  <si>
+    <t>121086</t>
   </si>
   <si>
     <t>175</t>
@@ -2116,10 +2116,10 @@
     <t>燃情岁月</t>
   </si>
   <si>
-    <t>  LegendsoftheFall</t>
-  </si>
-  <si>
-    <t>180704</t>
+    <t>Legends of the Fall</t>
+  </si>
+  <si>
+    <t>180734</t>
   </si>
   <si>
     <t>176</t>
@@ -2128,10 +2128,10 @@
     <t>爆裂鼓手</t>
   </si>
   <si>
-    <t>  Whiplash</t>
-  </si>
-  <si>
-    <t>314216</t>
+    <t>Whiplash</t>
+  </si>
+  <si>
+    <t>314324</t>
   </si>
   <si>
     <t>177</t>
@@ -2140,10 +2140,10 @@
     <t>未麻的部屋</t>
   </si>
   <si>
-    <t>  PerfectBlue</t>
-  </si>
-  <si>
-    <t>140673</t>
+    <t>Perfect Blue</t>
+  </si>
+  <si>
+    <t>140716</t>
   </si>
   <si>
     <t>178</t>
@@ -2152,10 +2152,10 @@
     <t>人工智能</t>
   </si>
   <si>
-    <t>  ArtificialIntelligence:AI</t>
-  </si>
-  <si>
-    <t>250953</t>
+    <t>Artificial Intelligence: AI</t>
+  </si>
+  <si>
+    <t>250978</t>
   </si>
   <si>
     <t>179</t>
@@ -2164,10 +2164,10 @@
     <t>模仿游戏</t>
   </si>
   <si>
-    <t>  TheImitationGame</t>
-  </si>
-  <si>
-    <t>343198</t>
+    <t>The Imitation Game</t>
+  </si>
+  <si>
+    <t>343250</t>
   </si>
   <si>
     <t>180</t>
@@ -2176,10 +2176,10 @@
     <t>一个叫欧维的男人决定去死</t>
   </si>
   <si>
-    <t>  EnmansomheterOve</t>
-  </si>
-  <si>
-    <t>186254</t>
+    <t>En man som heter Ove</t>
+  </si>
+  <si>
+    <t>186306</t>
   </si>
   <si>
     <t>181</t>
@@ -2188,10 +2188,10 @@
     <t>穿越时空的少女</t>
   </si>
   <si>
-    <t>  時をかける少女</t>
-  </si>
-  <si>
-    <t>241331</t>
+    <t>時をかける少女</t>
+  </si>
+  <si>
+    <t>241369</t>
   </si>
   <si>
     <t>182</t>
@@ -2200,10 +2200,10 @@
     <t>忠犬八公物语</t>
   </si>
   <si>
-    <t>  ハチ公物語</t>
-  </si>
-  <si>
-    <t>91590</t>
+    <t>ハチ公物語</t>
+  </si>
+  <si>
+    <t>91626</t>
   </si>
   <si>
     <t>183</t>
@@ -2212,10 +2212,10 @@
     <t>魂断蓝桥</t>
   </si>
   <si>
-    <t>  WaterlooBridge</t>
-  </si>
-  <si>
-    <t>160628</t>
+    <t>Waterloo Bridge</t>
+  </si>
+  <si>
+    <t>160678</t>
   </si>
   <si>
     <t>184</t>
@@ -2224,10 +2224,10 @@
     <t>房间</t>
   </si>
   <si>
-    <t>  Room</t>
-  </si>
-  <si>
-    <t>221139</t>
+    <t>Room</t>
+  </si>
+  <si>
+    <t>221216</t>
   </si>
   <si>
     <t>185</t>
@@ -2236,10 +2236,10 @@
     <t>猜火车</t>
   </si>
   <si>
-    <t>  Trainspotting</t>
-  </si>
-  <si>
-    <t>300749</t>
+    <t>Trainspotting</t>
+  </si>
+  <si>
+    <t>300783</t>
   </si>
   <si>
     <t>186</t>
@@ -2248,10 +2248,10 @@
     <t>魔女宅急便</t>
   </si>
   <si>
-    <t>  魔女の宅急便</t>
-  </si>
-  <si>
-    <t>269192</t>
+    <t>魔女の宅急便</t>
+  </si>
+  <si>
+    <t>269281</t>
   </si>
   <si>
     <t>187</t>
@@ -2260,10 +2260,10 @@
     <t>恐怖游轮</t>
   </si>
   <si>
-    <t>  Triangle</t>
-  </si>
-  <si>
-    <t>443315</t>
+    <t>Triangle</t>
+  </si>
+  <si>
+    <t>443400</t>
   </si>
   <si>
     <t>188</t>
@@ -2272,10 +2272,10 @@
     <t>完美陌生人</t>
   </si>
   <si>
-    <t>  Perfettisconosciuti</t>
-  </si>
-  <si>
-    <t>322649</t>
+    <t>Perfetti sconosciuti</t>
+  </si>
+  <si>
+    <t>322709</t>
   </si>
   <si>
     <t>189</t>
@@ -2284,10 +2284,10 @@
     <t>罗生门</t>
   </si>
   <si>
-    <t>  羅生門</t>
-  </si>
-  <si>
-    <t>169808</t>
+    <t>羅生門</t>
+  </si>
+  <si>
+    <t>169846</t>
   </si>
   <si>
     <t>190</t>
@@ -2296,7 +2296,7 @@
     <t>哪吒闹海</t>
   </si>
   <si>
-    <t>117012</t>
+    <t>117060</t>
   </si>
   <si>
     <t>191</t>
@@ -2305,10 +2305,10 @@
     <t>海街日记</t>
   </si>
   <si>
-    <t>  海街diary</t>
-  </si>
-  <si>
-    <t>203490</t>
+    <t>海街diary</t>
+  </si>
+  <si>
+    <t>203565</t>
   </si>
   <si>
     <t>192</t>
@@ -2317,10 +2317,10 @@
     <t>阿飞正传</t>
   </si>
   <si>
-    <t>  阿飛正傳</t>
-  </si>
-  <si>
-    <t>285482</t>
+    <t>阿飛正傳</t>
+  </si>
+  <si>
+    <t>285591</t>
   </si>
   <si>
     <t>193</t>
@@ -2329,10 +2329,10 @@
     <t>黑客帝国3：矩阵革命</t>
   </si>
   <si>
-    <t>  TheMatrixRevolutions</t>
-  </si>
-  <si>
-    <t>215918</t>
+    <t>The Matrix Revolutions</t>
+  </si>
+  <si>
+    <t>215952</t>
   </si>
   <si>
     <t>194</t>
@@ -2341,10 +2341,10 @@
     <t>香水</t>
   </si>
   <si>
-    <t>  Perfume:TheStoryofaMurderer</t>
-  </si>
-  <si>
-    <t>352820</t>
+    <t>Perfume: The Story of a Murderer</t>
+  </si>
+  <si>
+    <t>352864</t>
   </si>
   <si>
     <t>195</t>
@@ -2353,10 +2353,10 @@
     <t>朗读者</t>
   </si>
   <si>
-    <t>  TheReader</t>
-  </si>
-  <si>
-    <t>328026</t>
+    <t>The Reader</t>
+  </si>
+  <si>
+    <t>328038</t>
   </si>
   <si>
     <t>196</t>
@@ -2365,10 +2365,10 @@
     <t>浪潮</t>
   </si>
   <si>
-    <t>  DieWelle</t>
-  </si>
-  <si>
-    <t>168998</t>
+    <t>Die Welle</t>
+  </si>
+  <si>
+    <t>169029</t>
   </si>
   <si>
     <t>197</t>
@@ -2377,7 +2377,7 @@
     <t>天书奇谭</t>
   </si>
   <si>
-    <t>82869</t>
+    <t>82942</t>
   </si>
   <si>
     <t>198</t>
@@ -2386,7 +2386,7 @@
     <t>可可西里</t>
   </si>
   <si>
-    <t>166162</t>
+    <t>166183</t>
   </si>
   <si>
     <t>199</t>
@@ -2395,10 +2395,10 @@
     <t>谍影重重2</t>
   </si>
   <si>
-    <t>  TheBourneSupremacy</t>
-  </si>
-  <si>
-    <t>212153</t>
+    <t>The Bourne Supremacy</t>
+  </si>
+  <si>
+    <t>212179</t>
   </si>
   <si>
     <t>200</t>
@@ -2407,10 +2407,10 @@
     <t>牯岭街少年杀人事件</t>
   </si>
   <si>
-    <t>  牯嶺街少年殺人事件</t>
-  </si>
-  <si>
-    <t>143873</t>
+    <t>牯嶺街少年殺人事件</t>
+  </si>
+  <si>
+    <t>143917</t>
   </si>
   <si>
     <t>201</t>
@@ -2419,10 +2419,10 @@
     <t>谍影重重</t>
   </si>
   <si>
-    <t>  TheBourneIdentity</t>
-  </si>
-  <si>
-    <t>252848</t>
+    <t>The Bourne Identity</t>
+  </si>
+  <si>
+    <t>252891</t>
   </si>
   <si>
     <t>202</t>
@@ -2431,10 +2431,10 @@
     <t>战争之王</t>
   </si>
   <si>
-    <t>  LordofWar</t>
-  </si>
-  <si>
-    <t>218806</t>
+    <t>Lord of War</t>
+  </si>
+  <si>
+    <t>218837</t>
   </si>
   <si>
     <t>203</t>
@@ -2443,10 +2443,10 @@
     <t>地球上的星星</t>
   </si>
   <si>
-    <t>  TaareZameenPar</t>
-  </si>
-  <si>
-    <t>115591</t>
+    <t>Taare Zameen Par</t>
+  </si>
+  <si>
+    <t>115604</t>
   </si>
   <si>
     <t>204</t>
@@ -2455,10 +2455,10 @@
     <t>惊魂记</t>
   </si>
   <si>
-    <t>  Psycho</t>
-  </si>
-  <si>
-    <t>115825</t>
+    <t>Psycho</t>
+  </si>
+  <si>
+    <t>115865</t>
   </si>
   <si>
     <t>205</t>
@@ -2467,7 +2467,7 @@
     <t>疯狂的石头</t>
   </si>
   <si>
-    <t>435689</t>
+    <t>435846</t>
   </si>
   <si>
     <t>206</t>
@@ -2476,7 +2476,7 @@
     <t>青蛇</t>
   </si>
   <si>
-    <t>294239</t>
+    <t>294277</t>
   </si>
   <si>
     <t>207</t>
@@ -2485,13 +2485,13 @@
     <t>初恋这件小事</t>
   </si>
   <si>
-    <t>  สิ่งเล็กเล็กที่เรียกว่า...รัก</t>
+    <t>สิ่งเล็กเล็กที่เรียกว่า...รัก</t>
   </si>
   <si>
     <t>8.3</t>
   </si>
   <si>
-    <t>610904</t>
+    <t>611034</t>
   </si>
   <si>
     <t>208</t>
@@ -2500,10 +2500,10 @@
     <t>终结者2：审判日</t>
   </si>
   <si>
-    <t>  Terminator2:JudgmentDay</t>
-  </si>
-  <si>
-    <t>191741</t>
+    <t>Terminator 2: Judgment Day</t>
+  </si>
+  <si>
+    <t>191779</t>
   </si>
   <si>
     <t>209</t>
@@ -2512,10 +2512,10 @@
     <t>步履不停</t>
   </si>
   <si>
-    <t>  歩いても歩いても</t>
-  </si>
-  <si>
-    <t>132248</t>
+    <t>歩いても 歩いても</t>
+  </si>
+  <si>
+    <t>132265</t>
   </si>
   <si>
     <t>210</t>
@@ -2524,10 +2524,10 @@
     <t>源代码</t>
   </si>
   <si>
-    <t>  SourceCode</t>
-  </si>
-  <si>
-    <t>509234</t>
+    <t>Source Code</t>
+  </si>
+  <si>
+    <t>509290</t>
   </si>
   <si>
     <t>211</t>
@@ -2536,10 +2536,10 @@
     <t>一次别离</t>
   </si>
   <si>
-    <t>  جدایینادرازسیمین</t>
-  </si>
-  <si>
-    <t>164445</t>
+    <t>جدایی نادر از سیمین</t>
+  </si>
+  <si>
+    <t>164469</t>
   </si>
   <si>
     <t>212</t>
@@ -2548,10 +2548,10 @@
     <t>追随</t>
   </si>
   <si>
-    <t>  Following</t>
-  </si>
-  <si>
-    <t>105256</t>
+    <t>Following</t>
+  </si>
+  <si>
+    <t>105277</t>
   </si>
   <si>
     <t>213</t>
@@ -2560,10 +2560,10 @@
     <t>新龙门客栈</t>
   </si>
   <si>
-    <t>  新龍門客棧</t>
-  </si>
-  <si>
-    <t>248777</t>
+    <t>新龍門客棧</t>
+  </si>
+  <si>
+    <t>248843</t>
   </si>
   <si>
     <t>214</t>
@@ -2572,10 +2572,10 @@
     <t>小萝莉的猴神大叔</t>
   </si>
   <si>
-    <t>  BajrangiBhaijaan</t>
-  </si>
-  <si>
-    <t>256672</t>
+    <t>Bajrangi Bhaijaan</t>
+  </si>
+  <si>
+    <t>256741</t>
   </si>
   <si>
     <t>215</t>
@@ -2584,10 +2584,10 @@
     <t>爱在午夜降临前</t>
   </si>
   <si>
-    <t>  BeforeMidnight</t>
-  </si>
-  <si>
-    <t>160439</t>
+    <t>Before Midnight</t>
+  </si>
+  <si>
+    <t>160467</t>
   </si>
   <si>
     <t>216</t>
@@ -2596,10 +2596,10 @@
     <t>再次出发之纽约遇见你</t>
   </si>
   <si>
-    <t>  BeginAgain</t>
-  </si>
-  <si>
-    <t>236564</t>
+    <t>Begin Again</t>
+  </si>
+  <si>
+    <t>236602</t>
   </si>
   <si>
     <t>217</t>
@@ -2608,10 +2608,10 @@
     <t>撞车</t>
   </si>
   <si>
-    <t>  Crash</t>
-  </si>
-  <si>
-    <t>214529</t>
+    <t>Crash</t>
+  </si>
+  <si>
+    <t>214556</t>
   </si>
   <si>
     <t>218</t>
@@ -2620,10 +2620,10 @@
     <t>无耻混蛋</t>
   </si>
   <si>
-    <t>  InglouriousBasterds</t>
-  </si>
-  <si>
-    <t>284332</t>
+    <t>Inglourious Basterds</t>
+  </si>
+  <si>
+    <t>284380</t>
   </si>
   <si>
     <t>219</t>
@@ -2632,7 +2632,7 @@
     <t>功夫</t>
   </si>
   <si>
-    <t>435225</t>
+    <t>435454</t>
   </si>
   <si>
     <t>220</t>
@@ -2641,10 +2641,10 @@
     <t>梦之安魂曲</t>
   </si>
   <si>
-    <t>  RequiemforaDream</t>
-  </si>
-  <si>
-    <t>141036</t>
+    <t>Requiem for a Dream</t>
+  </si>
+  <si>
+    <t>141063</t>
   </si>
   <si>
     <t>221</t>
@@ -2653,10 +2653,10 @@
     <t>城市之光</t>
   </si>
   <si>
-    <t>  CityLights</t>
-  </si>
-  <si>
-    <t>62346</t>
+    <t>City Lights</t>
+  </si>
+  <si>
+    <t>62359</t>
   </si>
   <si>
     <t>222</t>
@@ -2665,10 +2665,10 @@
     <t>东京物语</t>
   </si>
   <si>
-    <t>  東京物語</t>
-  </si>
-  <si>
-    <t>69436</t>
+    <t>東京物語</t>
+  </si>
+  <si>
+    <t>69457</t>
   </si>
   <si>
     <t>223</t>
@@ -2677,10 +2677,10 @@
     <t>彗星来的那一夜</t>
   </si>
   <si>
-    <t>  Coherence</t>
-  </si>
-  <si>
-    <t>263805</t>
+    <t>Coherence</t>
+  </si>
+  <si>
+    <t>263869</t>
   </si>
   <si>
     <t>224</t>
@@ -2689,10 +2689,10 @@
     <t>绿里奇迹</t>
   </si>
   <si>
-    <t>  TheGreenMile</t>
-  </si>
-  <si>
-    <t>140239</t>
+    <t>The Green Mile</t>
+  </si>
+  <si>
+    <t>140274</t>
   </si>
   <si>
     <t>225</t>
@@ -2701,10 +2701,10 @@
     <t>血钻</t>
   </si>
   <si>
-    <t>  BloodDiamond</t>
-  </si>
-  <si>
-    <t>187286</t>
+    <t>Blood Diamond</t>
+  </si>
+  <si>
+    <t>187317</t>
   </si>
   <si>
     <t>226</t>
@@ -2713,10 +2713,10 @@
     <t>2001太空漫游</t>
   </si>
   <si>
-    <t>  2001:ASpaceOdyssey</t>
-  </si>
-  <si>
-    <t>142339</t>
+    <t>2001: A Space Odyssey</t>
+  </si>
+  <si>
+    <t>142371</t>
   </si>
   <si>
     <t>227</t>
@@ -2725,10 +2725,10 @@
     <t>奇迹男孩</t>
   </si>
   <si>
-    <t>  Wonder</t>
-  </si>
-  <si>
-    <t>305211</t>
+    <t>Wonder</t>
+  </si>
+  <si>
+    <t>305377</t>
   </si>
   <si>
     <t>228</t>
@@ -2737,10 +2737,10 @@
     <t>聚焦</t>
   </si>
   <si>
-    <t>  Spotlight</t>
-  </si>
-  <si>
-    <t>167463</t>
+    <t>Spotlight</t>
+  </si>
+  <si>
+    <t>167526</t>
   </si>
   <si>
     <t>229</t>
@@ -2749,10 +2749,10 @@
     <t>这个男人来自地球</t>
   </si>
   <si>
-    <t>  TheManfromEarth</t>
-  </si>
-  <si>
-    <t>238692</t>
+    <t>The Man from Earth</t>
+  </si>
+  <si>
+    <t>238723</t>
   </si>
   <si>
     <t>230</t>
@@ -2761,10 +2761,10 @@
     <t>E.T. 外星人</t>
   </si>
   <si>
-    <t>  E.T.:TheExtra-Terrestrial</t>
-  </si>
-  <si>
-    <t>204853</t>
+    <t>E.T.: The Extra-Terrestrial</t>
+  </si>
+  <si>
+    <t>204915</t>
   </si>
   <si>
     <t>231</t>
@@ -2773,10 +2773,10 @@
     <t>末路狂花</t>
   </si>
   <si>
-    <t>  Thelma&amp;amp;Louise</t>
-  </si>
-  <si>
-    <t>133873</t>
+    <t>Thelma &amp;amp; Louise</t>
+  </si>
+  <si>
+    <t>133912</t>
   </si>
   <si>
     <t>232</t>
@@ -2785,10 +2785,10 @@
     <t>发条橙</t>
   </si>
   <si>
-    <t>  AClockworkOrange</t>
-  </si>
-  <si>
-    <t>232004</t>
+    <t>A Clockwork Orange</t>
+  </si>
+  <si>
+    <t>232090</t>
   </si>
   <si>
     <t>233</t>
@@ -2797,10 +2797,10 @@
     <t>变脸</t>
   </si>
   <si>
-    <t>  FaceOff</t>
-  </si>
-  <si>
-    <t>265895</t>
+    <t>FaceOff</t>
+  </si>
+  <si>
+    <t>265925</t>
   </si>
   <si>
     <t>234</t>
@@ -2809,10 +2809,10 @@
     <t>黑鹰坠落</t>
   </si>
   <si>
-    <t>  BlackHawkDown</t>
-  </si>
-  <si>
-    <t>162793</t>
+    <t>Black Hawk Down</t>
+  </si>
+  <si>
+    <t>162819</t>
   </si>
   <si>
     <t>235</t>
@@ -2821,10 +2821,10 @@
     <t>勇闯夺命岛</t>
   </si>
   <si>
-    <t>  TheRock</t>
-  </si>
-  <si>
-    <t>177325</t>
+    <t>The Rock</t>
+  </si>
+  <si>
+    <t>177352</t>
   </si>
   <si>
     <t>236</t>
@@ -2833,10 +2833,10 @@
     <t>疯狂的麦克斯4：狂暴之路</t>
   </si>
   <si>
-    <t>  MadMax:FuryRoad</t>
-  </si>
-  <si>
-    <t>282166</t>
+    <t>Mad Max: Fury Road</t>
+  </si>
+  <si>
+    <t>282240</t>
   </si>
   <si>
     <t>237</t>
@@ -2845,10 +2845,10 @@
     <t>黄金三镖客</t>
   </si>
   <si>
-    <t>  Ilbuono,ilbrutto,ilcattivo.</t>
-  </si>
-  <si>
-    <t>68743</t>
+    <t>Il buono, il brutto, il cattivo.</t>
+  </si>
+  <si>
+    <t>68763</t>
   </si>
   <si>
     <t>238</t>
@@ -2857,10 +2857,10 @@
     <t>我爱你</t>
   </si>
   <si>
-    <t>  그대를사랑합니다</t>
-  </si>
-  <si>
-    <t>81487</t>
+    <t>그대를 사랑합니다</t>
+  </si>
+  <si>
+    <t>81512</t>
   </si>
   <si>
     <t>239</t>
@@ -2869,10 +2869,10 @@
     <t>秒速5厘米</t>
   </si>
   <si>
-    <t>  秒速5センチメートル</t>
-  </si>
-  <si>
-    <t>398721</t>
+    <t>秒速5センチメートル</t>
+  </si>
+  <si>
+    <t>398765</t>
   </si>
   <si>
     <t>240</t>
@@ -2881,10 +2881,10 @@
     <t>国王的演讲</t>
   </si>
   <si>
-    <t>  TheKing'sSpeech</t>
-  </si>
-  <si>
-    <t>425342</t>
+    <t>The King's Speech</t>
+  </si>
+  <si>
+    <t>425389</t>
   </si>
   <si>
     <t>241</t>
@@ -2893,10 +2893,10 @@
     <t>非常嫌疑犯</t>
   </si>
   <si>
-    <t>  TheUsualSuspects</t>
-  </si>
-  <si>
-    <t>157439</t>
+    <t>The Usual Suspects</t>
+  </si>
+  <si>
+    <t>157497</t>
   </si>
   <si>
     <t>242</t>
@@ -2905,10 +2905,10 @@
     <t>千钧一发</t>
   </si>
   <si>
-    <t>  Gattaca</t>
-  </si>
-  <si>
-    <t>125144</t>
+    <t>Gattaca</t>
+  </si>
+  <si>
+    <t>125176</t>
   </si>
   <si>
     <t>243</t>
@@ -2917,10 +2917,10 @@
     <t>遗愿清单</t>
   </si>
   <si>
-    <t>  TheBucketList</t>
-  </si>
-  <si>
-    <t>181755</t>
+    <t>The Bucket List</t>
+  </si>
+  <si>
+    <t>181781</t>
   </si>
   <si>
     <t>244</t>
@@ -2929,10 +2929,10 @@
     <t>卡萨布兰卡</t>
   </si>
   <si>
-    <t>  Casablanca</t>
-  </si>
-  <si>
-    <t>156227</t>
+    <t>Casablanca</t>
+  </si>
+  <si>
+    <t>156261</t>
   </si>
   <si>
     <t>245</t>
@@ -2941,10 +2941,10 @@
     <t>头号玩家</t>
   </si>
   <si>
-    <t>  ReadyPlayerOne</t>
-  </si>
-  <si>
-    <t>782694</t>
+    <t>Ready Player One</t>
+  </si>
+  <si>
+    <t>782831</t>
   </si>
   <si>
     <t>246</t>
@@ -2953,10 +2953,10 @@
     <t>新世界</t>
   </si>
   <si>
-    <t>  신세계</t>
-  </si>
-  <si>
-    <t>135409</t>
+    <t>신세계</t>
+  </si>
+  <si>
+    <t>135459</t>
   </si>
   <si>
     <t>247</t>
@@ -2965,10 +2965,10 @@
     <t>釜山行</t>
   </si>
   <si>
-    <t>  부산행</t>
-  </si>
-  <si>
-    <t>523336</t>
+    <t>부산행</t>
+  </si>
+  <si>
+    <t>523730</t>
   </si>
   <si>
     <t>248</t>
@@ -2977,7 +2977,7 @@
     <t>驴得水</t>
   </si>
   <si>
-    <t>480782</t>
+    <t>480885</t>
   </si>
   <si>
     <t>249</t>
@@ -2986,10 +2986,10 @@
     <t>美国丽人</t>
   </si>
   <si>
-    <t>  AmericanBeauty</t>
-  </si>
-  <si>
-    <t>232192</t>
+    <t>American Beauty</t>
+  </si>
+  <si>
+    <t>232232</t>
   </si>
   <si>
     <t>250</t>
@@ -2998,13 +2998,13 @@
     <t>四个春天</t>
   </si>
   <si>
-    <t>81346</t>
+    <t>81374</t>
   </si>
   <si>
     <t>rank</t>
   </si>
   <si>
-    <t>chineseName</t>
+    <t>ChineseName</t>
   </si>
   <si>
     <t>originalName</t>
@@ -3356,15 +3356,12 @@
   <dimension ref="A1:E251"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="3" max="3" width="20.6640625" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>993</v>
       </c>
